--- a/classfiers/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6923076923076923</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8181818181818181</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9053254437869822</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.467948717948718</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -552,7 +552,7 @@
         <v>0.1428571428571429</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8974358974358975</v>
+        <v>0.9935897435897436</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5538461538461539</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5922077922077922</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8541420118343195</v>
+        <v>0.9987179487179487</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
+++ b/classfiers/bloated/svm/nearmiss/bloated-svm-poly-nearmiss-results.xlsx
@@ -508,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07692307692307693</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1428571428571429</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9935897435897436</v>
+        <v>0.9924242424242424</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>0.8</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6285714285714286</v>
+        <v>0.6125874125874126</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9987179487179487</v>
+        <v>0.9984848484848484</v>
       </c>
     </row>
   </sheetData>
